--- a/excel/file/demo.xlsx
+++ b/excel/file/demo.xlsx
@@ -1,38 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="工作表1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="工作表2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="工作表3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="工作表4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>World</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -50,82 +63,59 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9067</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47143</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="123.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1381125" y="762000"/>
+          <a:ext cx="3666667" cy="3857143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -412,110 +402,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <tabColor rgb="00FF0000"/>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>这是一个合并单元格</t>
-        </is>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>123.456</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <tabColor rgb="0000FF00"/>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
-  <cols>
-    <col width="50" customWidth="1" min="3" max="3"/>
-  </cols>
-  <sheetData>
-    <row r="2" ht="100" customHeight="1"/>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <tabColor rgb="000000FF"/>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <tabColor rgb="008B008B"/>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>